--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:40:02+00:00</t>
+    <t>2022-08-08T11:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:46:36+00:00</t>
+    <t>2022-08-08T12:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>診療報酬点数表コード</t>
+    <t>診療報酬点数表番号</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -117,40 +117,49 @@
     <t>Count</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>助産所</t>
+  </si>
+  <si>
+    <t>医科</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>歯科</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>医科</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>歯科</t>
-  </si>
-  <si>
     <t>調剤</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>訪問看護</t>
+    <t>訪問看護ステーション</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -486,10 +495,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -498,7 +507,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>42</v>
@@ -510,10 +519,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -522,12 +531,24 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:43:36+00:00</t>
+    <t>2022-08-08T13:51:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:51:59+00:00</t>
+    <t>2022-08-08T14:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:49:45+00:00</t>
+    <t>2022-08-09T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T06:53:55+00:00</t>
+    <t>2022-08-09T08:44:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:44:45+00:00</t>
+    <t>2022-08-09T08:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:50:44+00:00</t>
+    <t>2022-08-09T10:07:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T10:07:05+00:00</t>
+    <t>2022-08-09T11:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:02:47+00:00</t>
+    <t>2022-08-09T11:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:40:37+00:00</t>
+    <t>2022-08-09T11:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:56:01+00:00</t>
+    <t>2022-08-09T12:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:47:03+00:00</t>
+    <t>2022-08-09T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:07:41+00:00</t>
+    <t>2022-08-09T13:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:29:57+00:00</t>
+    <t>2022-08-09T15:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:06:14+00:00</t>
+    <t>2022-08-09T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:26:10+00:00</t>
+    <t>2022-08-09T15:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:34:44+00:00</t>
+    <t>2022-08-09T15:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:46:26+00:00</t>
+    <t>2022-08-10T01:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T01:00:29+00:00</t>
+    <t>2022-08-10T14:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T14:02:51+00:00</t>
+    <t>2022-08-12T01:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T01:06:24+00:00</t>
+    <t>2022-08-12T01:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T01:25:44+00:00</t>
+    <t>2022-08-12T05:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T05:25:03+00:00</t>
+    <t>2022-08-12T11:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T11:25:08+00:00</t>
+    <t>2022-08-12T14:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T14:21:21+00:00</t>
+    <t>2022-08-13T23:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T23:05:38+00:00</t>
+    <t>2022-08-15T03:50:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T03:50:58+00:00</t>
+    <t>2022-08-16T02:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T02:11:44+00:00</t>
+    <t>2022-08-16T02:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T02:16:31+00:00</t>
+    <t>2022-08-16T05:36:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T05:36:02+00:00</t>
+    <t>2022-08-16T08:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,46 +117,49 @@
     <t>Count</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>助産所</t>
+  </si>
+  <si>
+    <t>医科</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>歯科</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>調剤</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>助産所</t>
-  </si>
-  <si>
-    <t>医科</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>歯科</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>調剤</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>老人保健施設</t>
   </si>
   <si>
     <t>訪問看護ステーション</t>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -550,6 +553,18 @@
       </c>
       <c r="D6" s="2"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T08:28:52+00:00</t>
+    <t>2022-08-17T02:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T02:18:50+00:00</t>
+    <t>2022-08-19T07:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:58:38+00:00</t>
+    <t>2022-08-19T11:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T11:50:06+00:00</t>
+    <t>2022-08-19T12:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T12:05:20+00:00</t>
+    <t>2022-08-19T13:26:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -418,52 +421,54 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -481,87 +486,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T13:26:06+00:00</t>
+    <t>2022-08-19T22:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T22:47:44+00:00</t>
+    <t>2022-08-19T23:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T23:18:22+00:00</t>
+    <t>2022-08-20T06:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T06:38:45+00:00</t>
+    <t>2022-08-20T21:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T21:49:31+00:00</t>
+    <t>2022-08-22T05:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:20:45+00:00</t>
+    <t>2022-08-22T05:33:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:33:58+00:00</t>
+    <t>2022-08-23T04:13:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T04:13:25+00:00</t>
+    <t>2022-08-23T09:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T09:39:37+00:00</t>
+    <t>2022-08-23T11:46:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core MedicalFeeScoreType Codes</t>
+    <t>JP Core MedicalFeeScoreType CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T11:46:01+00:00</t>
+    <t>2022-08-23T14:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalFeeScoreType_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -429,46 +432,48 @@
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -486,87 +491,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T14:14:41+00:00</t>
+    <t>2022-08-23T14:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T14:37:49+00:00</t>
+    <t>2022-08-24T00:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T00:00:04+00:00</t>
+    <t>2022-08-24T01:12:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T01:12:00+00:00</t>
+    <t>2022-08-24T05:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T05:56:06+00:00</t>
+    <t>2022-08-24T08:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T08:36:55+00:00</t>
+    <t>2022-08-25T07:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T07:26:37+00:00</t>
+    <t>2022-08-25T09:08:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T09:08:19+00:00</t>
+    <t>2022-08-26T06:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T06:24:45+00:00</t>
+    <t>2022-08-26T08:05:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:05:58+00:00</t>
+    <t>2022-08-26T08:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:35:36+00:00</t>
+    <t>2022-08-26T11:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T11:44:17+00:00</t>
+    <t>2022-08-26T11:46:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T11:46:15+00:00</t>
+    <t>2022-08-29T02:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T02:59:02+00:00</t>
+    <t>2022-08-29T03:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:09:31+00:00</t>
+    <t>2022-08-29T03:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:34:24+00:00</t>
+    <t>2022-08-29T04:09:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T04:09:01+00:00</t>
+    <t>2022-08-29T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T12:54:27+00:00</t>
+    <t>2022-08-29T13:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T13:08:49+00:00</t>
+    <t>2022-08-29T13:33:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T13:33:12+00:00</t>
+    <t>2022-08-29T14:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:08:50+00:00</t>
+    <t>2022-08-29T14:28:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:28:45+00:00</t>
+    <t>2022-08-30T01:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T01:48:21+00:00</t>
+    <t>2022-08-30T01:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T01:58:57+00:00</t>
+    <t>2022-08-31T03:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T03:49:51+00:00</t>
+    <t>2022-08-31T03:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T03:54:28+00:00</t>
+    <t>2022-08-31T04:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T04:03:32+00:00</t>
+    <t>2022-08-31T10:04:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:04:27+00:00</t>
+    <t>2022-08-31T10:47:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:47:17+00:00</t>
+    <t>2022-08-31T12:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:43:18+00:00</t>
+    <t>2022-08-31T13:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T13:42:36+00:00</t>
+    <t>2022-08-31T15:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:28:04+00:00</t>
+    <t>2022-08-31T15:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:55:44+00:00</t>
+    <t>2022-09-01T06:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T06:32:04+00:00</t>
+    <t>2022-09-01T12:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T12:04:59+00:00</t>
+    <t>2022-09-02T02:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T02:55:21+00:00</t>
+    <t>2022-09-02T03:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T03:38:16+00:00</t>
+    <t>2022-09-02T05:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:18:16+00:00</t>
+    <t>2022-09-02T05:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:23:11+00:00</t>
+    <t>2022-09-02T05:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:31:57+00:00</t>
+    <t>2022-09-02T07:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T07:45:49+00:00</t>
+    <t>2022-09-02T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:30:25+00:00</t>
+    <t>2022-09-02T09:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:35:05+00:00</t>
+    <t>2022-09-02T10:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T10:41:06+00:00</t>
+    <t>2022-09-02T11:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:26:25+00:00</t>
+    <t>2022-09-02T11:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:38:41+00:00</t>
+    <t>2022-09-02T11:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:58:56+00:00</t>
+    <t>2022-09-02T12:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T12:49:53+00:00</t>
+    <t>2022-09-02T13:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:37:55+00:00</t>
+    <t>2022-09-02T13:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:46:03+00:00</t>
+    <t>2022-09-02T14:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:13:59+00:00</t>
+    <t>2022-09-02T14:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:17:12+00:00</t>
+    <t>2022-09-02T14:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:29:53+00:00</t>
+    <t>2022-09-02T14:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:35:52+00:00</t>
+    <t>2022-09-02T15:10:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:10:38+00:00</t>
+    <t>2022-09-03T01:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T01:46:21+00:00</t>
+    <t>2022-09-03T13:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T13:39:51+00:00</t>
+    <t>2022-09-05T02:07:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T02:07:34+00:00</t>
+    <t>2022-09-05T03:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T03:06:13+00:00</t>
+    <t>2022-09-05T04:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T04:03:43+00:00</t>
+    <t>2022-09-05T05:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T05:18:44+00:00</t>
+    <t>2022-09-05T06:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T06:29:27+00:00</t>
+    <t>2022-09-05T10:47:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T10:47:02+00:00</t>
+    <t>2022-09-05T23:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T23:00:51+00:00</t>
+    <t>2022-09-06T08:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T08:38:56+00:00</t>
+    <t>2022-09-06T09:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,34 +141,34 @@
     <t>1</t>
   </si>
   <si>
+    <t>医科</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>歯科</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>調剤</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>老人保健施設</t>
+  </si>
+  <si>
+    <t>訪問看護ステーション</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>助産所</t>
-  </si>
-  <si>
-    <t>医科</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>歯科</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>調剤</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>老人保健施設</t>
-  </si>
-  <si>
-    <t>訪問看護ステーション</t>
   </si>
 </sst>
 </file>
@@ -508,10 +508,10 @@
         <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -520,7 +520,7 @@
         <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>44</v>
@@ -556,10 +556,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -568,7 +568,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>51</v>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -27,6 +27,12 @@
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalFeeScoreType_CS</t>
   </si>
   <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>id: urn:oid:1.2.392.100495.20.3.22</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
@@ -57,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:29:54+00:00</t>
+    <t>2022-09-06T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,6 +147,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>助産所</t>
+  </si>
+  <si>
     <t>医科</t>
   </si>
   <si>
@@ -163,12 +175,6 @@
   </si>
   <si>
     <t>訪問看護ステーション</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>助産所</t>
   </si>
 </sst>
 </file>
@@ -302,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -364,15 +370,15 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -410,22 +416,22 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -440,40 +446,48 @@
       <c r="A17" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>33</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>36</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -491,87 +505,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:17:19+00:00</t>
+    <t>2022-09-07T00:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T00:39:19+00:00</t>
+    <t>2022-09-07T05:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T05:54:57+00:00</t>
+    <t>2022-09-07T09:10:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:10:58+00:00</t>
+    <t>2022-09-08T21:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,49 +129,43 @@
     <t>Count</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>医科</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>歯科</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>調剤</t>
+  </si>
+  <si>
+    <t>老人保健施設</t>
+  </si>
+  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>助産所</t>
-  </si>
-  <si>
-    <t>医科</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>歯科</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>調剤</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>老人保健施設</t>
   </si>
   <si>
     <t>訪問看護ステーション</t>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +516,10 @@
         <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -534,7 +528,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>46</v>
@@ -558,10 +552,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -570,24 +564,12 @@
         <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T21:26:37+00:00</t>
+    <t>2022-09-09T09:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T09:52:21+00:00</t>
+    <t>2022-09-09T10:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:24:51+00:00</t>
+    <t>2022-09-09T11:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:04:14+00:00</t>
+    <t>2022-09-09T11:59:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:59:54+00:00</t>
+    <t>2022-09-09T22:38:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T22:38:47+00:00</t>
+    <t>2022-09-11T10:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-11T10:13:05+00:00</t>
+    <t>2022-09-12T00:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T00:20:59+00:00</t>
+    <t>2022-09-12T01:27:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
